--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_6.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_14_6.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1725234.537587202</v>
+        <v>-1728095.351379494</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673433</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14949590.09794722</v>
+        <v>14949590.09794721</v>
       </c>
     </row>
     <row r="11">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>232.2791855053266</v>
       </c>
       <c r="G2" t="n">
-        <v>143.5013688276108</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,22 +707,22 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -747,16 +747,16 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -786,25 +786,25 @@
         <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>13.54094097171525</v>
+        <v>33.41746470132269</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -817,10 +817,10 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>152.3821593358568</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,22 +862,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>45.96816881886812</v>
       </c>
       <c r="S4" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>61.87039505198491</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,10 +893,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>263.7138800015061</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>124.0596109626757</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,10 +908,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.83417464571001</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="H5" t="n">
-        <v>12.8449616379054</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -972,16 +972,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -990,10 +990,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>99.47932027120976</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>43.9218040015056</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1026,22 +1026,22 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>76.17634910292566</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
-        <v>205.7729852034775</v>
+        <v>38.99412159458363</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>127.5046028836639</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
         <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>170.2672736397279</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>96.32012762355025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.7416790765836</v>
+        <v>246.1987898773156</v>
       </c>
       <c r="H8" t="n">
         <v>303.0051123819518</v>
       </c>
       <c r="I8" t="n">
-        <v>73.18818411814982</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1181,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>127.8724504177534</v>
+        <v>127.8724504177533</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>207.5073162493722</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0607682327524</v>
       </c>
       <c r="V8" t="n">
-        <v>164.8554279713573</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>66.2109125582232</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.438182924131</v>
+        <v>135.4381829241309</v>
       </c>
       <c r="H9" t="n">
-        <v>93.83392671696365</v>
+        <v>93.83392671696363</v>
       </c>
       <c r="I9" t="n">
-        <v>23.79630926906601</v>
+        <v>23.79630926906597</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>136.2924232858444</v>
+        <v>125.6050741394802</v>
       </c>
       <c r="T9" t="n">
         <v>192.4848946346714</v>
       </c>
       <c r="U9" t="n">
-        <v>225.8160311441933</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3936111367397</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>71.59113547891167</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1348,16 +1348,16 @@
         <v>286.2319001807608</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>211.8674249147467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1433,7 +1433,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>369.7311006784708</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
         <v>386.2379386560536</v>
@@ -1534,19 +1534,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>61.44013021076714</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.56693137109476</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
         <v>250.9057009881286</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>141.6930519056957</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1999,7 +1999,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -2008,19 +2008,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>78.89395497654093</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>69.82863813027316</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2065,7 +2065,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2138,7 +2138,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701355</v>
+        <v>327.7522584701337</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
@@ -2242,13 +2242,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
@@ -2257,7 +2257,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>34.45703212904731</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>31.26260713376574</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2375,7 +2375,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2384,7 +2384,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="24">
@@ -2473,19 +2473,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>41.33703994142957</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>46.15319674220952</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2494,7 +2494,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,10 +2524,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2716,22 +2716,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>107.4021082756239</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695521</v>
+        <v>83.70251495695523</v>
       </c>
       <c r="T29" t="n">
         <v>199.022230457616</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.56412890121557</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2998,10 +2998,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -3026,7 +3026,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3038,7 +3038,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G32" t="n">
         <v>409.8033385187866</v>
@@ -3184,7 +3184,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.5473326898975</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545305</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3205,7 +3205,7 @@
         <v>116.0100653541841</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652577</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,10 +3232,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808192</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096048</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
@@ -3244,7 +3244,7 @@
         <v>261.8998268972044</v>
       </c>
       <c r="V34" t="n">
-        <v>227.8529958317883</v>
+        <v>227.8529958317882</v>
       </c>
       <c r="W34" t="n">
         <v>262.2383508445512</v>
@@ -3253,7 +3253,7 @@
         <v>201.4250078969974</v>
       </c>
       <c r="Y34" t="n">
-        <v>194.3000058600551</v>
+        <v>194.300005860055</v>
       </c>
     </row>
     <row r="35">
@@ -3512,7 +3512,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>409.8033385187866</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3980,7 +3980,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
         <v>381.9303700722618</v>
@@ -4028,7 +4028,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>166.0479880037678</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="C2" t="n">
-        <v>166.0479880037678</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="D2" t="n">
-        <v>166.0479880037678</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="E2" t="n">
-        <v>166.0479880037678</v>
+        <v>255.7225503044908</v>
       </c>
       <c r="F2" t="n">
-        <v>166.0479880037678</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G2" t="n">
         <v>21.09711040012049</v>
@@ -4328,16 +4328,16 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917582</v>
       </c>
       <c r="K2" t="n">
-        <v>142.264087905254</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515903</v>
+        <v>294.5174947515904</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030603</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991316</v>
@@ -4346,34 +4346,34 @@
         <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>1011.026904601763</v>
+        <v>1011.026904601762</v>
       </c>
       <c r="Q2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R2" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="S2" t="n">
-        <v>900.5447187946889</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="T2" t="n">
-        <v>686.1106626298169</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="U2" t="n">
-        <v>432.4256445709457</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="V2" t="n">
-        <v>432.4256445709457</v>
+        <v>788.4778634388465</v>
       </c>
       <c r="W2" t="n">
-        <v>432.4256445709457</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="X2" t="n">
-        <v>166.0479880037678</v>
+        <v>522.1002068716687</v>
       </c>
       <c r="Y2" t="n">
-        <v>166.0479880037678</v>
+        <v>522.1002068716687</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>351.7936650996839</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="C3" t="n">
-        <v>351.7936650996839</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="D3" t="n">
-        <v>202.8592554384327</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="E3" t="n">
-        <v>202.8592554384327</v>
+        <v>167.6316683732355</v>
       </c>
       <c r="F3" t="n">
-        <v>202.8592554384327</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>117.4455628004801</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>192.1295835699343</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>338.874007230231</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4746963267547</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>739.5286634293598</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>909.4672107560896</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1036.519636212814</v>
       </c>
       <c r="S3" t="n">
-        <v>1022.841918059567</v>
+        <v>1002.764621362994</v>
       </c>
       <c r="T3" t="n">
-        <v>1022.841918059567</v>
+        <v>805.9555429944312</v>
       </c>
       <c r="U3" t="n">
-        <v>794.7060720963805</v>
+        <v>805.9555429944312</v>
       </c>
       <c r="V3" t="n">
-        <v>559.5539638646378</v>
+        <v>570.8034347626884</v>
       </c>
       <c r="W3" t="n">
-        <v>559.5539638646378</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="X3" t="n">
-        <v>559.5539638646378</v>
+        <v>316.5660780344868</v>
       </c>
       <c r="Y3" t="n">
-        <v>351.7936650996839</v>
+        <v>316.5660780344868</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>298.4029011684693</v>
+        <v>355.3743762745875</v>
       </c>
       <c r="C4" t="n">
-        <v>298.4029011684693</v>
+        <v>186.4381933466805</v>
       </c>
       <c r="D4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="E4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G4" t="n">
-        <v>298.4029011684693</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I4" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J4" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L4" t="n">
-        <v>316.708372655101</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375336</v>
       </c>
       <c r="N4" t="n">
         <v>739.1822330227046</v>
@@ -4507,31 +4507,31 @@
         <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>1054.855520006025</v>
+        <v>1054.855520006024</v>
       </c>
       <c r="R4" t="n">
-        <v>1054.855520006025</v>
+        <v>1008.423026249592</v>
       </c>
       <c r="S4" t="n">
-        <v>848.0684854165359</v>
+        <v>801.6359916601033</v>
       </c>
       <c r="T4" t="n">
-        <v>848.0684854165359</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="U4" t="n">
-        <v>785.5731368791774</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="V4" t="n">
-        <v>785.5731368791774</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="W4" t="n">
-        <v>519.1954803119994</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="X4" t="n">
-        <v>519.1954803119994</v>
+        <v>576.1669554181176</v>
       </c>
       <c r="Y4" t="n">
-        <v>298.4029011684693</v>
+        <v>355.3743762745875</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>53.98113264792539</v>
+        <v>419.733006062639</v>
       </c>
       <c r="C5" t="n">
-        <v>53.98113264792539</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="D5" t="n">
-        <v>53.98113264792539</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="E5" t="n">
-        <v>53.98113264792539</v>
+        <v>294.4202677165019</v>
       </c>
       <c r="F5" t="n">
-        <v>47.03563189872192</v>
+        <v>287.4747669672984</v>
       </c>
       <c r="G5" t="n">
-        <v>34.07181912527746</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H5" t="n">
         <v>21.09711040012049</v>
@@ -4565,52 +4565,52 @@
         <v>21.09711040012049</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917573</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K5" t="n">
         <v>142.264087905254</v>
       </c>
       <c r="L5" t="n">
-        <v>294.5174947515904</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030602</v>
+        <v>495.5981834030603</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991311</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358409</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P5" t="n">
-        <v>1011.026904601762</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R5" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006024</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T5" t="n">
-        <v>840.4214638411523</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="U5" t="n">
-        <v>586.7364457822812</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="V5" t="n">
-        <v>586.7364457822812</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="W5" t="n">
-        <v>586.7364457822812</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="X5" t="n">
-        <v>586.7364457822812</v>
+        <v>686.1106626298169</v>
       </c>
       <c r="Y5" t="n">
-        <v>320.3587892151033</v>
+        <v>419.733006062639</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>165.9467308776107</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="C6" t="n">
-        <v>165.9467308776107</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="D6" t="n">
-        <v>165.9467308776107</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G6" t="n">
-        <v>165.9467308776107</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H6" t="n">
-        <v>65.46256898749988</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I6" t="n">
         <v>21.09711040012049</v>
@@ -4647,49 +4647,49 @@
         <v>21.09711040012049</v>
       </c>
       <c r="K6" t="n">
-        <v>95.78113116957465</v>
+        <v>192.1295835699343</v>
       </c>
       <c r="L6" t="n">
-        <v>338.8740072302307</v>
+        <v>338.874007230231</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4746963267545</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N6" t="n">
-        <v>739.5286634293595</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O6" t="n">
-        <v>909.4672107560893</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P6" t="n">
         <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006024</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T6" t="n">
-        <v>977.909712831352</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="U6" t="n">
-        <v>749.7738668681654</v>
+        <v>858.0464416374622</v>
       </c>
       <c r="V6" t="n">
-        <v>749.7738668681654</v>
+        <v>622.8943334057194</v>
       </c>
       <c r="W6" t="n">
-        <v>749.7738668681654</v>
+        <v>368.6569766775178</v>
       </c>
       <c r="X6" t="n">
-        <v>541.9223666626326</v>
+        <v>329.2689750668272</v>
       </c>
       <c r="Y6" t="n">
-        <v>334.1620678976788</v>
+        <v>329.2689750668272</v>
       </c>
     </row>
     <row r="7">
@@ -4699,46 +4699,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>336.9232408259378</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="C7" t="n">
-        <v>167.9870578980309</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="D7" t="n">
-        <v>167.9870578980309</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="F7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="G7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="H7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="I7" t="n">
-        <v>21.09711040012049</v>
+        <v>36.32155393434483</v>
       </c>
       <c r="J7" t="n">
         <v>21.09711040012049</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287947</v>
+        <v>126.4133765287946</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551009</v>
+        <v>316.7083726551008</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375336</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227046</v>
+        <v>739.1822330227045</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075543</v>
+        <v>918.4699372075542</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>926.0629918407077</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S7" t="n">
-        <v>926.0629918407077</v>
+        <v>848.0684854165359</v>
       </c>
       <c r="T7" t="n">
-        <v>700.593955598722</v>
+        <v>622.5994491745502</v>
       </c>
       <c r="U7" t="n">
-        <v>700.593955598722</v>
+        <v>450.6123040839159</v>
       </c>
       <c r="V7" t="n">
-        <v>700.593955598722</v>
+        <v>450.6123040839159</v>
       </c>
       <c r="W7" t="n">
-        <v>434.2162990315441</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="X7" t="n">
-        <v>434.2162990315441</v>
+        <v>184.2346475167379</v>
       </c>
       <c r="Y7" t="n">
-        <v>336.9232408259378</v>
+        <v>184.2346475167379</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1253.396221905349</v>
+        <v>1012.253723604927</v>
       </c>
       <c r="C8" t="n">
-        <v>1253.396221905349</v>
+        <v>1012.253723604927</v>
       </c>
       <c r="D8" t="n">
-        <v>1253.396221905349</v>
+        <v>1012.253723604927</v>
       </c>
       <c r="E8" t="n">
-        <v>1253.396221905349</v>
+        <v>1012.253723604927</v>
       </c>
       <c r="F8" t="n">
-        <v>842.4103171157415</v>
+        <v>601.2678188153195</v>
       </c>
       <c r="G8" t="n">
-        <v>426.5096311797984</v>
+        <v>352.5821724745966</v>
       </c>
       <c r="H8" t="n">
-        <v>120.4438610970188</v>
+        <v>46.51640239181705</v>
       </c>
       <c r="I8" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181705</v>
       </c>
       <c r="J8" t="n">
-        <v>166.4989367229165</v>
+        <v>166.4989367229168</v>
       </c>
       <c r="K8" t="n">
-        <v>397.0601716677501</v>
+        <v>397.0601716677515</v>
       </c>
       <c r="L8" t="n">
-        <v>719.9935330937587</v>
+        <v>719.9935330937606</v>
       </c>
       <c r="M8" t="n">
-        <v>1110.988557721578</v>
+        <v>1110.988557721581</v>
       </c>
       <c r="N8" t="n">
-        <v>1512.924098999423</v>
+        <v>1512.924098999425</v>
       </c>
       <c r="O8" t="n">
-        <v>1879.125171830559</v>
+        <v>1879.125171830563</v>
       </c>
       <c r="P8" t="n">
-        <v>2157.168314271726</v>
+        <v>2157.16831427173</v>
       </c>
       <c r="Q8" t="n">
-        <v>2317.794388257586</v>
+        <v>2317.794388257591</v>
       </c>
       <c r="R8" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.820119590853</v>
       </c>
       <c r="S8" t="n">
-        <v>2196.656028259785</v>
+        <v>2196.656028259789</v>
       </c>
       <c r="T8" t="n">
-        <v>2196.656028259785</v>
+        <v>1987.052678512948</v>
       </c>
       <c r="U8" t="n">
-        <v>2196.656028259785</v>
+        <v>1733.45594292431</v>
       </c>
       <c r="V8" t="n">
-        <v>2030.135393945282</v>
+        <v>1402.393055580739</v>
       </c>
       <c r="W8" t="n">
-        <v>2030.135393945282</v>
+        <v>1402.393055580739</v>
       </c>
       <c r="X8" t="n">
-        <v>2030.135393945282</v>
+        <v>1402.393055580739</v>
       </c>
       <c r="Y8" t="n">
-        <v>1639.996061969471</v>
+        <v>1012.253723604927</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>692.408216554785</v>
+        <v>931.3005198785846</v>
       </c>
       <c r="C9" t="n">
-        <v>517.955187273658</v>
+        <v>756.8474905974576</v>
       </c>
       <c r="D9" t="n">
-        <v>369.0207776124067</v>
+        <v>607.9130809362064</v>
       </c>
       <c r="E9" t="n">
-        <v>369.0207776124067</v>
+        <v>448.6756259307508</v>
       </c>
       <c r="F9" t="n">
         <v>302.1410679576358</v>
       </c>
       <c r="G9" t="n">
-        <v>165.3348225797257</v>
+        <v>165.3348225797258</v>
       </c>
       <c r="H9" t="n">
-        <v>70.55307842117659</v>
+        <v>70.55307842117662</v>
       </c>
       <c r="I9" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181705</v>
       </c>
       <c r="J9" t="n">
-        <v>99.15933091977968</v>
+        <v>99.15933091977986</v>
       </c>
       <c r="K9" t="n">
-        <v>529.1098899837357</v>
+        <v>402.9718154420819</v>
       </c>
       <c r="L9" t="n">
-        <v>801.5039302761504</v>
+        <v>675.365855734497</v>
       </c>
       <c r="M9" t="n">
-        <v>1138.731795472815</v>
+        <v>1012.593720931162</v>
       </c>
       <c r="N9" t="n">
-        <v>1688.433790136034</v>
+        <v>1373.155649182499</v>
       </c>
       <c r="O9" t="n">
-        <v>1996.057717796922</v>
+        <v>1680.779576843388</v>
       </c>
       <c r="P9" t="n">
-        <v>2223.619974106038</v>
+        <v>2223.619974106042</v>
       </c>
       <c r="Q9" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.820119590853</v>
       </c>
       <c r="R9" t="n">
-        <v>2325.820119590849</v>
+        <v>2325.820119590853</v>
       </c>
       <c r="S9" t="n">
-        <v>2188.151005160703</v>
+        <v>2198.946307328752</v>
       </c>
       <c r="T9" t="n">
-        <v>1993.721818661035</v>
+        <v>2004.517120829084</v>
       </c>
       <c r="U9" t="n">
-        <v>1765.624817505284</v>
+        <v>2004.517120829084</v>
       </c>
       <c r="V9" t="n">
-        <v>1530.472709273541</v>
+        <v>1769.365012597341</v>
       </c>
       <c r="W9" t="n">
-        <v>1276.23535254534</v>
+        <v>1515.127655869139</v>
       </c>
       <c r="X9" t="n">
-        <v>1068.383852339807</v>
+        <v>1307.276155663606</v>
       </c>
       <c r="Y9" t="n">
-        <v>860.6235535748531</v>
+        <v>1099.515856898653</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>530.4168875012097</v>
+        <v>268.9473200656797</v>
       </c>
       <c r="C10" t="n">
-        <v>361.4807045733028</v>
+        <v>268.9473200656797</v>
       </c>
       <c r="D10" t="n">
-        <v>361.4807045733028</v>
+        <v>118.830680653344</v>
       </c>
       <c r="E10" t="n">
-        <v>361.4807045733028</v>
+        <v>118.830680653344</v>
       </c>
       <c r="F10" t="n">
-        <v>214.5907570753924</v>
+        <v>118.830680653344</v>
       </c>
       <c r="G10" t="n">
-        <v>46.51640239181697</v>
+        <v>118.830680653344</v>
       </c>
       <c r="H10" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181705</v>
       </c>
       <c r="I10" t="n">
-        <v>46.51640239181697</v>
+        <v>46.51640239181705</v>
       </c>
       <c r="J10" t="n">
-        <v>65.89540801909571</v>
+        <v>65.89540801909587</v>
       </c>
       <c r="K10" t="n">
-        <v>227.5779039736022</v>
+        <v>227.5779039736025</v>
       </c>
       <c r="L10" t="n">
-        <v>490.0022680632623</v>
+        <v>490.0022680632628</v>
       </c>
       <c r="M10" t="n">
-        <v>777.081088479406</v>
+        <v>777.0810884794067</v>
       </c>
       <c r="N10" t="n">
-        <v>1062.768432620621</v>
+        <v>1062.768432620622</v>
       </c>
       <c r="O10" t="n">
-        <v>1310.630639257117</v>
+        <v>1310.630639257118</v>
       </c>
       <c r="P10" t="n">
-        <v>1499.198894325119</v>
+        <v>1499.19889432512</v>
       </c>
       <c r="Q10" t="n">
-        <v>1546.318699718233</v>
+        <v>1546.318699718234</v>
       </c>
       <c r="R10" t="n">
-        <v>1546.318699718233</v>
+        <v>1546.318699718234</v>
       </c>
       <c r="S10" t="n">
-        <v>1546.318699718233</v>
+        <v>1546.318699718234</v>
       </c>
       <c r="T10" t="n">
-        <v>1322.964688947774</v>
+        <v>1322.964688947775</v>
       </c>
       <c r="U10" t="n">
-        <v>1033.841557452056</v>
+        <v>1033.841557452057</v>
       </c>
       <c r="V10" t="n">
-        <v>1033.841557452056</v>
+        <v>779.1570692461704</v>
       </c>
       <c r="W10" t="n">
-        <v>744.4243874150952</v>
+        <v>489.7398992092098</v>
       </c>
       <c r="X10" t="n">
-        <v>530.4168875012097</v>
+        <v>489.7398992092098</v>
       </c>
       <c r="Y10" t="n">
-        <v>530.4168875012097</v>
+        <v>268.9473200656797</v>
       </c>
     </row>
     <row r="11">
@@ -5018,31 +5018,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5051,37 +5051,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516146</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>1074.481071167374</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793926</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>1671.859558793926</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>379.6759351444937</v>
       </c>
       <c r="G13" t="n">
         <v>317.6151975578602</v>
@@ -5194,55 +5194,55 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910815</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570824</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279809</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853368</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580267</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2404.976284215525</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2222.121449870429</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2002.519984893371</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1713.444758237568</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1458.760270031681</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1169.343099994721</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.343099994721</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>948.5505208511906</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5270,16 +5270,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
@@ -5294,16 +5294,16 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
         <v>4405.252601474784</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>1231.938859683105</v>
       </c>
       <c r="N15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>1896.176478190824</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703119</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>526.565882642405</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,13 +5501,13 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
@@ -5516,7 +5516,7 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5525,31 +5525,31 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273908</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239598</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.212916266271</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N18" t="n">
-        <v>2149.810879820878</v>
+        <v>2148.04349261611</v>
       </c>
       <c r="O18" t="n">
-        <v>2149.810879820878</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>945.4026036630049</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>776.466420735098</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>626.3497813227623</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="E19" t="n">
-        <v>478.4366877403692</v>
+        <v>422.7903292978459</v>
       </c>
       <c r="F19" t="n">
-        <v>331.5467402424588</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G19" t="n">
-        <v>164.3506409573387</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.361618603202</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.2863919474</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741513</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704552</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806535</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630049</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5744,46 +5744,46 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192559</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111711</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V20" t="n">
         <v>3820.749612123003</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>579.1554649516144</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1176.533952578166</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N21" t="n">
-        <v>1804.131916132773</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,16 +5884,16 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>948.5505208511905</v>
+        <v>951.7772127656159</v>
       </c>
       <c r="C22" t="n">
-        <v>779.6143379232836</v>
+        <v>782.841029837709</v>
       </c>
       <c r="D22" t="n">
-        <v>779.6143379232836</v>
+        <v>632.7243904253733</v>
       </c>
       <c r="E22" t="n">
-        <v>631.7012443408905</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F22" t="n">
         <v>484.8112968429802</v>
@@ -5902,58 +5902,58 @@
         <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2412.158000621627</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2412.158000621627</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2412.158000621627</v>
+        <v>2415.384692536053</v>
       </c>
       <c r="U22" t="n">
-        <v>2123.082773965825</v>
+        <v>2126.309465880251</v>
       </c>
       <c r="V22" t="n">
-        <v>1868.398285759938</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W22" t="n">
-        <v>1578.981115722978</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X22" t="n">
-        <v>1350.99156482496</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y22" t="n">
-        <v>1130.19898568143</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6008,28 +6008,28 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245706</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,28 +6121,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>916.3099000622261</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C25" t="n">
-        <v>747.3737171343192</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>597.2570777219835</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>449.3439841395904</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782957</v>
@@ -6172,25 +6172,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2379.917379832663</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2090.842153176861</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1836.157664970974</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1546.740494934013</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1318.750944035996</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1097.958364892466</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6257,7 +6257,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
         <v>3820.749612123003</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>740.5562989961525</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>1231.938859683105</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1859.536823237711</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2338.476105524075</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2338.476105524075</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2049.400878868273</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1794.716390662386</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6443,34 +6443,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355937</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1337.934786622704</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="N30" t="n">
-        <v>1965.532750177311</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O30" t="n">
-        <v>1965.532750177311</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P30" t="n">
-        <v>2389.155899672379</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835331</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6646,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T31" t="n">
-        <v>2379.917379832663</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U31" t="n">
-        <v>2090.842153176861</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V31" t="n">
-        <v>1836.157664970974</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1546.740494934013</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1318.750944035996</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1097.958364892466</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6680,10 +6680,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
         <v>793.7736536168611</v>
@@ -6698,19 +6698,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516142</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M33" t="n">
-        <v>1176.533952578166</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1804.131916132773</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319322</v>
+        <v>926.9575315319331</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656825</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150031</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345475</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L34" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6880,10 +6880,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S34" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T34" t="n">
         <v>2243.385329532432</v>
@@ -6892,7 +6892,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
         <v>1483.798285518751</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K36" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L36" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M36" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384022</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K37" t="n">
         <v>483.825546038073</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7132,13 +7132,13 @@
         <v>1748.685508594055</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7154,10 +7154,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
         <v>793.7736536168611</v>
@@ -7172,19 +7172,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>590.9096564684977</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1103.652278938886</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1731.250242493492</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
-        <v>151.3734194384019</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7333,10 +7333,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380731</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7345,25 +7345,25 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717216</v>
       </c>
       <c r="R40" t="n">
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7391,37 +7391,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,7 +7430,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7445,13 +7445,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7482,31 +7482,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656815</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D43" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.0944824954151</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,16 +7591,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
@@ -7609,7 +7609,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
         <v>1084.076049400516</v>
@@ -7643,13 +7643,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7661,7 +7661,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7682,13 +7682,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7804,13 +7804,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380728</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>99.37288961069065</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8076,7 +8076,7 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127214</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8155,7 +8155,7 @@
         <v>135.0065633140411</v>
       </c>
       <c r="Q4" t="n">
-        <v>65.34295837775146</v>
+        <v>65.34295837775106</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>2.051220519418266</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>97.32166909127238</v>
       </c>
       <c r="L6" t="n">
-        <v>97.32166909127216</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>137.0530405058572</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>191.0505721332142</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>27.38164655864759</v>
+        <v>27.38164655864749</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -22547,22 +22547,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>290.5040867765807</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.2164900707557</v>
       </c>
       <c r="F2" t="n">
-        <v>6.876045741711437</v>
+        <v>174.5968602363849</v>
       </c>
       <c r="G2" t="n">
-        <v>269.3328058180992</v>
+        <v>412.83417464571</v>
       </c>
       <c r="H2" t="n">
-        <v>314.193632629268</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22601,19 +22601,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>64.03837846862882</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>19.65653892085813</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769629</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22759,13 +22759,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>224.3882354506926</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>22.80911833508486</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819386</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23422,13 +23422,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>104.0840080815017</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>24.80831533902688</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>6.922421112516645</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23887,7 +23887,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23896,19 +23896,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>66.52709304639032</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>70.4660747159507</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23953,7 +23953,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24130,13 +24130,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>31.91821458107435</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>186.1428431935225</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24361,19 +24361,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>99.26785128072173</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,10 +24412,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>73.62417772602069</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>99.26785128072173</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24886,10 +24886,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1299973.775014183</v>
+        <v>1299973.775014182</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1299973.775014183</v>
+        <v>1299973.775014182</v>
       </c>
     </row>
     <row r="8">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1299973.775014183</v>
+        <v>1299973.775014182</v>
       </c>
     </row>
     <row r="12">
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>101551.284536593</v>
+        <v>101551.2845365931</v>
       </c>
       <c r="C2" t="n">
         <v>123156.2654796426</v>
@@ -26341,7 +26341,7 @@
         <v>121071.9899535009</v>
       </c>
       <c r="L2" t="n">
-        <v>123156.2654796425</v>
+        <v>123156.2654796424</v>
       </c>
       <c r="M2" t="n">
         <v>123156.2654796425</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911931</v>
+        <v>680087.980591193</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>331437.5228513</v>
+        <v>331437.5228513008</v>
       </c>
       <c r="E3" t="n">
-        <v>563905.7843424103</v>
+        <v>563905.7843424088</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911407</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>6.002665031701325e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>99845.1433620124</v>
+        <v>99845.14336201275</v>
       </c>
       <c r="M3" t="n">
-        <v>147342.6769569555</v>
+        <v>147342.6769569551</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>6.548361852765082e-11</v>
+        <v>4.297362465877085e-11</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>166333.854749409</v>
+        <v>166333.8547494092</v>
       </c>
       <c r="C4" t="n">
-        <v>248543.2666865467</v>
+        <v>248543.2666865468</v>
       </c>
       <c r="D4" t="n">
-        <v>153791.3594476892</v>
+        <v>153791.3594476889</v>
       </c>
       <c r="E4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="F4" t="n">
-        <v>9337.200356756592</v>
+        <v>9337.20035675659</v>
       </c>
       <c r="G4" t="n">
         <v>9337.200356756592</v>
       </c>
       <c r="H4" t="n">
-        <v>9337.200356756566</v>
+        <v>9337.200356756644</v>
       </c>
       <c r="I4" t="n">
-        <v>9337.200356756606</v>
+        <v>9337.200356756653</v>
       </c>
       <c r="J4" t="n">
         <v>9337.20035675659</v>
       </c>
       <c r="K4" t="n">
-        <v>9337.200356756643</v>
+        <v>9337.200356756639</v>
       </c>
       <c r="L4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985009</v>
       </c>
       <c r="M4" t="n">
         <v>17328.05961985007</v>
       </c>
       <c r="N4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.05961985005</v>
       </c>
       <c r="O4" t="n">
-        <v>17328.05961985008</v>
+        <v>17328.0596198501</v>
       </c>
       <c r="P4" t="n">
-        <v>17328.05961985009</v>
+        <v>17328.05961985004</v>
       </c>
     </row>
     <row r="5">
@@ -26473,10 +26473,10 @@
         <v>63047.80320426619</v>
       </c>
       <c r="D5" t="n">
-        <v>88290.79546543595</v>
+        <v>88290.79546543604</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-807918.3540082753</v>
+        <v>-808278.4370239928</v>
       </c>
       <c r="C6" t="n">
-        <v>-188434.8044111703</v>
+        <v>-188434.8044111704</v>
       </c>
       <c r="D6" t="n">
-        <v>-450363.4122847826</v>
+        <v>-450363.4122847833</v>
       </c>
       <c r="E6" t="n">
-        <v>-553293.5245695731</v>
+        <v>-553328.2624950072</v>
       </c>
       <c r="F6" t="n">
-        <v>10612.25977283729</v>
+        <v>10577.52184740154</v>
       </c>
       <c r="G6" t="n">
-        <v>10612.25977283718</v>
+        <v>10577.52184740148</v>
       </c>
       <c r="H6" t="n">
-        <v>10612.25977283719</v>
+        <v>10577.52184740144</v>
       </c>
       <c r="I6" t="n">
-        <v>10612.25977283718</v>
+        <v>10577.52184740148</v>
       </c>
       <c r="J6" t="n">
-        <v>-58386.89464627687</v>
+        <v>-58421.63257171264</v>
       </c>
       <c r="K6" t="n">
-        <v>10612.25977283707</v>
+        <v>10577.52184740138</v>
       </c>
       <c r="L6" t="n">
-        <v>-97181.05335613541</v>
+        <v>-97181.05335613585</v>
       </c>
       <c r="M6" t="n">
-        <v>-144678.5869510784</v>
+        <v>-144678.586951078</v>
       </c>
       <c r="N6" t="n">
-        <v>2664.090005877209</v>
+        <v>2664.090005877108</v>
       </c>
       <c r="O6" t="n">
-        <v>2664.090005877049</v>
+        <v>2664.090005877006</v>
       </c>
       <c r="P6" t="n">
-        <v>2664.090005876991</v>
+        <v>2664.09000587702</v>
       </c>
     </row>
   </sheetData>
@@ -26710,10 +26710,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M2" t="n">
         <v>24.28464749203976</v>
@@ -26722,7 +26722,7 @@
         <v>24.28464749203969</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P2" t="n">
         <v>24.28464749203971</v>
@@ -26741,7 +26741,7 @@
         <v>614.0550137694783</v>
       </c>
       <c r="D3" t="n">
-        <v>885.8132865896814</v>
+        <v>885.8132865896821</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26793,19 +26793,19 @@
         <v>263.7138800015061</v>
       </c>
       <c r="D4" t="n">
-        <v>581.4550298977122</v>
+        <v>581.4550298977132</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
@@ -26932,22 +26932,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203966</v>
+        <v>24.28464749203969</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>-6.394884621840902e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>5.371703082346356e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26963,10 +26963,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>271.7582728202032</v>
+        <v>271.7582728202038</v>
       </c>
       <c r="E3" t="n">
-        <v>482.1622137519928</v>
+        <v>482.1622137519917</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27015,13 +27015,13 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>317.741149896206</v>
+        <v>317.741149896207</v>
       </c>
       <c r="E4" t="n">
-        <v>591.2532582019369</v>
+        <v>591.2532582019352</v>
       </c>
       <c r="F4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015061</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896206</v>
+        <v>317.7411498962073</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019369</v>
+        <v>591.2532582019352</v>
       </c>
       <c r="N4" t="n">
-        <v>-4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,10 +27261,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>317.741149896206</v>
+        <v>317.741149896207</v>
       </c>
       <c r="M4" t="n">
-        <v>591.2532582019369</v>
+        <v>591.2532582019352</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,22 +27379,22 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>64.17895484410224</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>65.87054979504879</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27467,16 +27467,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
         <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27506,25 +27506,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>133.6089944404835</v>
+        <v>113.7324707108761</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27537,10 +27537,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27552,13 +27552,13 @@
         <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,22 +27582,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>127.5046028836639</v>
+        <v>81.53643406479581</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,10 +27613,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>119.0199616619745</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>241.2132808083318</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>149.1202946442039</v>
       </c>
       <c r="H5" t="n">
-        <v>301.3486709913626</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I5" t="n">
         <v>115.3066195468971</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545475</v>
+        <v>122.5240586545474</v>
       </c>
     </row>
     <row r="6">
@@ -27692,16 +27692,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
         <v>145.0692123933839</v>
@@ -27710,10 +27710,10 @@
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27746,22 +27746,22 @@
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>118.6646384819511</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>166.7788636088939</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,16 +27774,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27795,7 +27795,7 @@
         <v>122.1505735248085</v>
       </c>
       <c r="J7" t="n">
-        <v>15.07219909888209</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,28 +27819,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
-        <v>204.7191642435938</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2586305026775</v>
+        <v>115.9913568629496</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>22.80911833508492</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>122.2645257285445</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27865,13 +27865,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>165.5428891992679</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>73.18818411814974</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,13 +27904,13 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>207.5073162493723</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0607682327524</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>162.8968304987776</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -27938,10 +27938,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>78.85829983516068</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>10.68734914636426</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>225.8160311441933</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.3936111367397</v>
       </c>
       <c r="H10" t="n">
-        <v>148.025116863428</v>
+        <v>76.43398138451627</v>
       </c>
       <c r="I10" t="n">
         <v>107.4132560413785</v>
@@ -28068,16 +28068,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>13.84223047429046</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28096,7 +28096,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -28153,7 +28153,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>-1.073772610967144e-12</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -28245,7 +28245,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>-1.319714707885093e-12</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>5.844450849205411e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28858,7 +28858,7 @@
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -29095,7 +29095,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -29104,7 +29104,7 @@
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="24">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="C29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="D29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="E29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="F29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="G29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="H29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="T29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="U29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="V29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="W29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="X29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
       <c r="Y29" t="n">
-        <v>8.185452315956353e-14</v>
+        <v>7.503331289626657e-14</v>
       </c>
     </row>
     <row r="30">
@@ -29746,7 +29746,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -29758,7 +29758,7 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203976</v>
       </c>
     </row>
     <row r="35">
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30508,7 +30508,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="44">
@@ -30700,7 +30700,7 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.561058438551481</v>
+        <v>3.561058438551483</v>
       </c>
       <c r="H8" t="n">
-        <v>36.46968973381536</v>
+        <v>36.46968973381539</v>
       </c>
       <c r="I8" t="n">
-        <v>137.2877054522561</v>
+        <v>137.2877054522562</v>
       </c>
       <c r="J8" t="n">
-        <v>302.240383649009</v>
+        <v>302.2403836490092</v>
       </c>
       <c r="K8" t="n">
-        <v>452.9799873528933</v>
+        <v>452.9799873528936</v>
       </c>
       <c r="L8" t="n">
-        <v>561.9617295417132</v>
+        <v>561.9617295417137</v>
       </c>
       <c r="M8" t="n">
-        <v>625.2907025483031</v>
+        <v>625.2907025483036</v>
       </c>
       <c r="N8" t="n">
-        <v>635.4085598368375</v>
+        <v>635.408559836838</v>
       </c>
       <c r="O8" t="n">
-        <v>599.9982849884912</v>
+        <v>599.9982849884917</v>
       </c>
       <c r="P8" t="n">
-        <v>512.0846547867515</v>
+        <v>512.0846547867518</v>
       </c>
       <c r="Q8" t="n">
-        <v>384.5542494561265</v>
+        <v>384.5542494561267</v>
       </c>
       <c r="R8" t="n">
-        <v>223.6923371406596</v>
+        <v>223.6923371406598</v>
       </c>
       <c r="S8" t="n">
-        <v>81.14761916849194</v>
+        <v>81.147619168492</v>
       </c>
       <c r="T8" t="n">
-        <v>15.58853331475911</v>
+        <v>15.58853331475913</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2848846750841184</v>
+        <v>0.2848846750841186</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.905334239079692</v>
+        <v>1.905334239079694</v>
       </c>
       <c r="H9" t="n">
-        <v>18.40151751953282</v>
+        <v>18.40151751953283</v>
       </c>
       <c r="I9" t="n">
-        <v>65.60032358234906</v>
+        <v>65.60032358234911</v>
       </c>
       <c r="J9" t="n">
-        <v>180.0123019474371</v>
+        <v>180.0123019474372</v>
       </c>
       <c r="K9" t="n">
-        <v>307.6696959657764</v>
+        <v>307.6696959657767</v>
       </c>
       <c r="L9" t="n">
-        <v>413.6998750247376</v>
+        <v>413.6998750247379</v>
       </c>
       <c r="M9" t="n">
-        <v>482.7682411913763</v>
+        <v>482.7682411913767</v>
       </c>
       <c r="N9" t="n">
-        <v>495.5456800139766</v>
+        <v>495.545680013977</v>
       </c>
       <c r="O9" t="n">
-        <v>453.3274845059476</v>
+        <v>453.327484505948</v>
       </c>
       <c r="P9" t="n">
-        <v>363.8352723730335</v>
+        <v>363.8352723730338</v>
       </c>
       <c r="Q9" t="n">
-        <v>243.214244272699</v>
+        <v>243.2142442726991</v>
       </c>
       <c r="R9" t="n">
-        <v>118.2978574053164</v>
+        <v>118.2978574053165</v>
       </c>
       <c r="S9" t="n">
-        <v>35.39074781799338</v>
+        <v>35.39074781799341</v>
       </c>
       <c r="T9" t="n">
-        <v>7.67983406015016</v>
+        <v>7.679834060150165</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1253509367815587</v>
+        <v>0.1253509367815588</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.597368221719097</v>
+        <v>1.597368221719099</v>
       </c>
       <c r="H10" t="n">
-        <v>14.20205564401162</v>
+        <v>14.20205564401163</v>
       </c>
       <c r="I10" t="n">
-        <v>48.03721888587978</v>
+        <v>48.03721888587982</v>
       </c>
       <c r="J10" t="n">
-        <v>112.9339332755402</v>
+        <v>112.9339332755403</v>
       </c>
       <c r="K10" t="n">
-        <v>185.5851443051824</v>
+        <v>185.5851443051825</v>
       </c>
       <c r="L10" t="n">
-        <v>237.4850899817648</v>
+        <v>237.485089981765</v>
       </c>
       <c r="M10" t="n">
-        <v>250.3947295191127</v>
+        <v>250.3947295191129</v>
       </c>
       <c r="N10" t="n">
-        <v>244.4409025108872</v>
+        <v>244.4409025108873</v>
       </c>
       <c r="O10" t="n">
-        <v>225.7807373753503</v>
+        <v>225.7807373753505</v>
       </c>
       <c r="P10" t="n">
-        <v>193.1944256522806</v>
+        <v>193.1944256522807</v>
       </c>
       <c r="Q10" t="n">
-        <v>133.7578062750419</v>
+        <v>133.757806275042</v>
       </c>
       <c r="R10" t="n">
-        <v>71.82348386020594</v>
+        <v>71.823483860206</v>
       </c>
       <c r="S10" t="n">
-        <v>27.83777164577735</v>
+        <v>27.83777164577737</v>
       </c>
       <c r="T10" t="n">
-        <v>6.825118765527051</v>
+        <v>6.825118765527057</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08712917573013269</v>
+        <v>0.08712917573013276</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>131.3417120833333</v>
+        <v>359.7096985496635</v>
       </c>
       <c r="O12" t="n">
-        <v>332.1692388321062</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>301.1823051500301</v>
       </c>
       <c r="N15" t="n">
-        <v>697.0074482175619</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.87657862147</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>142.5962444444444</v>
+        <v>551.7051287319853</v>
       </c>
       <c r="P18" t="n">
-        <v>504.288299623203</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,43 +32461,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067228</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>746.4857620875799</v>
       </c>
       <c r="O21" t="n">
-        <v>198.560797075695</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32783,34 +32783,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305194</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>366.8427442359106</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33020,10 +33020,10 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
@@ -33032,22 +33032,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>638.4800548179295</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>461.1007071927452</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33257,34 +33257,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>416.4300581532626</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>268.5330199802463</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33494,7 +33494,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33503,7 +33503,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>198.5607970756955</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,13 +33731,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33746,19 +33746,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>660.0558748011979</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,7 +34205,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34220,16 +34220,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>357.9244589488886</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
@@ -34442,34 +34442,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860829</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>97.32166909127238</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>75.43840481763047</v>
@@ -34796,7 +34796,7 @@
         <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649638</v>
+        <v>125.9385470877685</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.560263827496826</v>
+        <v>6.560263827496425</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>75.43840481763047</v>
+        <v>172.7600739089029</v>
       </c>
       <c r="L6" t="n">
-        <v>245.5483596572284</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M6" t="n">
         <v>192.5259485823473</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>121.1944791223227</v>
+        <v>121.1944791223229</v>
       </c>
       <c r="K8" t="n">
-        <v>232.8901363079127</v>
+        <v>232.8901363079131</v>
       </c>
       <c r="L8" t="n">
-        <v>326.195314571726</v>
+        <v>326.1953145717264</v>
       </c>
       <c r="M8" t="n">
-        <v>394.9444693210304</v>
+        <v>394.9444693210309</v>
       </c>
       <c r="N8" t="n">
-        <v>405.9954962402466</v>
+        <v>405.9954962402471</v>
       </c>
       <c r="O8" t="n">
-        <v>369.9000735668044</v>
+        <v>369.900073566805</v>
       </c>
       <c r="P8" t="n">
-        <v>280.8516590314819</v>
+        <v>280.8516590314823</v>
       </c>
       <c r="Q8" t="n">
-        <v>162.248559581677</v>
+        <v>162.2485595816773</v>
       </c>
       <c r="R8" t="n">
-        <v>8.106799326527494</v>
+        <v>8.106799326527664</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>53.1746752807704</v>
+        <v>53.17467528077051</v>
       </c>
       <c r="K9" t="n">
-        <v>434.293494003996</v>
+        <v>306.8812974972748</v>
       </c>
       <c r="L9" t="n">
-        <v>275.1454952448634</v>
+        <v>275.1454952448637</v>
       </c>
       <c r="M9" t="n">
-        <v>340.634207269358</v>
+        <v>340.6342072693583</v>
       </c>
       <c r="N9" t="n">
-        <v>555.2545400638576</v>
+        <v>364.2039679306437</v>
       </c>
       <c r="O9" t="n">
-        <v>310.7312400615032</v>
+        <v>310.7312400615035</v>
       </c>
       <c r="P9" t="n">
-        <v>229.8608649587033</v>
+        <v>548.3236335986408</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.2324701866775</v>
+        <v>103.2324701866776</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>19.57475315886741</v>
+        <v>19.57475315886749</v>
       </c>
       <c r="K10" t="n">
-        <v>163.3156524792995</v>
+        <v>163.3156524792997</v>
       </c>
       <c r="L10" t="n">
-        <v>265.0751152420809</v>
+        <v>265.0751152420811</v>
       </c>
       <c r="M10" t="n">
-        <v>289.9786064809533</v>
+        <v>289.9786064809534</v>
       </c>
       <c r="N10" t="n">
-        <v>288.5730748901158</v>
+        <v>288.5730748901159</v>
       </c>
       <c r="O10" t="n">
-        <v>250.36586528939</v>
+        <v>250.3658652893902</v>
       </c>
       <c r="P10" t="n">
-        <v>190.4729849171741</v>
+        <v>190.4729849171742</v>
       </c>
       <c r="Q10" t="n">
-        <v>47.59576302334752</v>
+        <v>47.5957630233476</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,34 +35483,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>228.3679864663302</v>
       </c>
       <c r="O12" t="n">
-        <v>189.5729943876618</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010511</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>159.0482712280117</v>
       </c>
       <c r="N15" t="n">
-        <v>565.6657361342286</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071398</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,34 +35957,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>0</v>
+        <v>409.1088842875408</v>
       </c>
       <c r="P18" t="n">
-        <v>370.3138922088728</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236316905</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>615.1440500042467</v>
       </c>
       <c r="O21" t="n">
-        <v>55.96455263125056</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561604</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>235.5010321525773</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36668,10 +36668,10 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -36680,22 +36680,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>496.3460208959112</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>318.5044627483008</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>274.2960242312443</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>128.5512458942248</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37142,7 +37142,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37151,7 +37151,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>55.96455263125101</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37379,13 +37379,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37394,19 +37394,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37473,7 +37473,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O37" t="n">
         <v>397.5465471980852</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>517.9218408791796</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37853,7 +37853,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37868,16 +37868,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>226.5827468655553</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38032,7 +38032,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
         <v>371.5675334924728</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.1903400640646</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
